--- a/Analyzer Results/RESULTS_MERGED_DATE_FIT.xlsx
+++ b/Analyzer Results/RESULTS_MERGED_DATE_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -505,23 +520,30 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9719626168224301</v>
+        <v>0.9813084112149532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8785046728971962</v>
+        <v>0.8878504672897196</v>
       </c>
       <c r="G2" t="n">
         <v>0.1214953271028037</v>
       </c>
       <c r="H2" t="n">
+        <v>0.1121495327102804</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1121495327102804</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.1214953271028037</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.9345794392523366</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.1308411214953271</v>
       </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -552,13 +574,22 @@
         <v>0.102803738317757</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09345794392523364</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="I3" t="n">
+        <v>0.102803738317757</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.102803738317757</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.8504672897196265</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.1121495327102806</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1386138613861386</v>
       </c>
     </row>
     <row r="4">
@@ -590,13 +621,22 @@
         <v>0.149532710280375</v>
       </c>
       <c r="H4" t="n">
+        <v>0.1495327102803738</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1495327102803738</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.1775700934579439</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>0.7570093457943925</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.2523364485981308</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0396039603960396</v>
       </c>
     </row>
     <row r="5">
@@ -628,13 +668,22 @@
         <v>0.1775700934579439</v>
       </c>
       <c r="H5" t="n">
+        <v>0.1775700934579439</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1775700934579439</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.1869158878504673</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.9532710280373831</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.2897196261682243</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.009900990099009901</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +718,19 @@
         <v>0.1682242990654206</v>
       </c>
       <c r="I6" t="n">
+        <v>0.1588785046728972</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1682242990654206</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.7850467289719626</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.2336448598130841</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.04950495049504951</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +765,19 @@
         <v>0.1588785046728972</v>
       </c>
       <c r="I7" t="n">
+        <v>0.1682242990654206</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1588785046728972</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.8130841121495327</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>0.2429906542056074</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0198019801980198</v>
       </c>
     </row>
     <row r="8">
@@ -742,13 +809,22 @@
         <v>0.1401869158878505</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1495327102803738</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="I8" t="n">
+        <v>0.1401869158878505</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1401869158878505</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.8971962616822429</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.2616822429906542</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1089108910891089</v>
       </c>
     </row>
     <row r="9">
@@ -783,10 +859,19 @@
         <v>0.07476635514018691</v>
       </c>
       <c r="I9" t="n">
+        <v>0.07476635514018697</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.07476635514018692</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.9065420560747662</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>0.09345794392523364</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5742574257425742</v>
       </c>
     </row>
     <row r="10">
@@ -809,10 +894,10 @@
         <v>0.7897196261682242</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.8971962616822449</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.794392523364486</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -821,10 +906,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.009345794392523364</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9603960396039604</v>
       </c>
     </row>
     <row r="11">
@@ -856,13 +950,22 @@
         <v>0.01869158878504673</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02803738317757009</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="I11" t="n">
+        <v>0.03738317757009346</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.03738317757009346</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.9439252336448599</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>0.01869158878504673</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9405940594059407</v>
       </c>
     </row>
     <row r="12">
@@ -897,11 +1000,20 @@
         <v>0.05607476635514018</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9813084112149532</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="J12" t="n">
         <v>0.05607476635514018</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.9813084112149532</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.05607476635514018</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8415841584158416</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -932,13 +1044,22 @@
         <v>0.04672897196261682</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009345794392523364</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="I13" t="n">
+        <v>0.06542056074766354</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01869158878504673</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.7289719626168224</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.9504950495049505</v>
       </c>
     </row>
     <row r="14">
@@ -973,10 +1094,19 @@
         <v>0.06542056074766354</v>
       </c>
       <c r="I14" t="n">
+        <v>0.05607476635514018</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.06542056074766354</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.8785046728971962</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>0.04672897196261682</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8811881188118812</v>
       </c>
     </row>
     <row r="15">
@@ -1008,13 +1138,22 @@
         <v>0.08411214953271028</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1121495327102804</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="I15" t="n">
+        <v>0.08411214953271028</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.09345794392523364</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.9252336448598132</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>0.1682242990654206</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.2871287128712872</v>
       </c>
     </row>
     <row r="16">
@@ -1046,13 +1185,22 @@
         <v>0.1121495327102811</v>
       </c>
       <c r="H16" t="n">
+        <v>0.1214953271028037</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1214953271028037</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.1308411214953271</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>0.8878504672897196</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>0.1869158878504673</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1485148514851485</v>
       </c>
     </row>
     <row r="17">
@@ -1084,13 +1232,22 @@
         <v>0.009345794392523364</v>
       </c>
       <c r="H17" t="n">
+        <v>0.009345794392523364</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.009345794392523364</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02803738317757009</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9906542056074765</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.03738317757009346</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.9906542056074766</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.03738317757009346</v>
+      <c r="M17" t="n">
+        <v>0.9158415841584159</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1279,22 @@
         <v>0.03738317757009346</v>
       </c>
       <c r="H18" t="n">
+        <v>0.03738317757009346</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01869158878504673</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.04672897196261682</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>0.8037383177570093</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>0.06542056074766354</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8910891089108911</v>
       </c>
     </row>
     <row r="19">
@@ -1160,13 +1326,22 @@
         <v>0.02803738317757009</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01869158878504673</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="I19" t="n">
+        <v>0.02803738317757009</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.009345794392523364</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.9719626168224299</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>0.02803738317757009</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9158415841584159</v>
       </c>
     </row>
     <row r="20">
@@ -1198,14 +1373,21 @@
         <v>0.3364485981308411</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5046728971962616</v>
+        <v>0.3364485981308411</v>
       </c>
       <c r="I20" t="n">
+        <v>0.3364485981308411</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4766355140186915</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.7383177570093458</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>0.6074766355140186</v>
       </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1236,13 +1418,22 @@
         <v>0.308411214953271</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4392523364485981</v>
+        <v>0.308411214953271</v>
       </c>
       <c r="I21" t="n">
+        <v>0.308411214953271</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.411214953271028</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.5887850467289719</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>0.514018691588785</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.198019801980198</v>
       </c>
     </row>
     <row r="22">
@@ -1274,13 +1465,22 @@
         <v>0.3878504672897196</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5607476635514018</v>
+        <v>0.3925233644859813</v>
       </c>
       <c r="I22" t="n">
+        <v>0.4205607476635514</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5327102803738317</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.7757009345794392</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>0.616822429906542</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1188118811881188</v>
       </c>
     </row>
     <row r="23">
@@ -1312,13 +1512,22 @@
         <v>0.3177570093457944</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5327102803738317</v>
+        <v>0.3271028037383177</v>
       </c>
       <c r="I23" t="n">
+        <v>0.2990654205607478</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4953271028037383</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.8691588785046729</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>0.6261682242990654</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1683168316831683</v>
       </c>
     </row>
     <row r="24">
@@ -1350,13 +1559,22 @@
         <v>0.5420560747663551</v>
       </c>
       <c r="H24" t="n">
+        <v>0.5420560747663551</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4766355140186915</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.6542056074766355</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>0.719626168224299</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>0.6728971962616822</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1379,22 +1597,31 @@
         <v>0.2289719626168224</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9439252336448597</v>
+        <v>0.9532710280373831</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9626168224299065</v>
+        <v>0.9719626168224299</v>
       </c>
       <c r="G25" t="n">
         <v>0.4205607476635514</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6074766355140186</v>
+        <v>0.4205607476635514</v>
       </c>
       <c r="I25" t="n">
+        <v>0.3644859813084112</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5794392523364489</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.8598130841121495</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>0.6542056074766355</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.06930693069306931</v>
       </c>
     </row>
     <row r="26">
@@ -1426,13 +1653,22 @@
         <v>0.1869158878504673</v>
       </c>
       <c r="H26" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.1962616822429906</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>0.794392523364486</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>0.2990654205607476</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8613861386138614</v>
       </c>
     </row>
     <row r="27">
@@ -1464,13 +1700,22 @@
         <v>0.2429906542056074</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3177570093457944</v>
+        <v>0.2429906542056074</v>
       </c>
       <c r="I27" t="n">
+        <v>0.2242990654205607</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.2897196261682243</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.9158878504672896</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>0.5327102803738317</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4158415841584158</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1747,22 @@
         <v>0.2803738317757009</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3925233644859813</v>
+        <v>0.2803738317757009</v>
       </c>
       <c r="I28" t="n">
+        <v>0.2710280373831775</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3177570093457944</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.8411214953271028</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>0.5514018691588785</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3069306930693069</v>
       </c>
     </row>
     <row r="29">
@@ -1543,10 +1797,19 @@
         <v>0.2523364485981308</v>
       </c>
       <c r="I29" t="n">
+        <v>0.2616822429906542</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2429906542056074</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.6261682242990654</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>0.3271028037383177</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.3366336633663367</v>
       </c>
     </row>
     <row r="30">
@@ -1578,13 +1841,22 @@
         <v>0.205607476635514</v>
       </c>
       <c r="H30" t="n">
+        <v>0.205607476635514</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.205607476635514</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.2056074766355141</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>0.7102803738317757</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>0.3551401869158878</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7326732673267327</v>
       </c>
     </row>
     <row r="31">
@@ -1616,13 +1888,22 @@
         <v>0.3271028037383177</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4672897196261683</v>
+        <v>0.3177570093457944</v>
       </c>
       <c r="I31" t="n">
+        <v>0.3177570093457944</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4485981308411214</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.8317757009345794</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>0.5887850467289719</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1782178217821782</v>
       </c>
     </row>
     <row r="32">
@@ -1654,13 +1935,22 @@
         <v>0.1962616822429906</v>
       </c>
       <c r="H32" t="n">
+        <v>0.1962616822429906</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2336448598130841</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.2149532710280374</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>0.9626168224299064</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.3925233644859813</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.7821782178217822</v>
       </c>
     </row>
     <row r="33">
@@ -1692,13 +1982,22 @@
         <v>0.2710280373831775</v>
       </c>
       <c r="H33" t="n">
+        <v>0.2710280373831775</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2897196261682243</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.2990654205607476</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>0.7009345794392523</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>0.4766355140186915</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.3564356435643564</v>
       </c>
     </row>
     <row r="34">
@@ -1730,13 +2029,22 @@
         <v>0.2616822429906542</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2897196261682243</v>
+        <v>0.2616822429906542</v>
       </c>
       <c r="I34" t="n">
+        <v>0.2523364485981308</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2803738317757009</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.6728971962616822</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>0.4579439252336459</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.4653465346534654</v>
       </c>
     </row>
     <row r="35">
@@ -1768,13 +2076,22 @@
         <v>0.2242990654205608</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2710280373831775</v>
+        <v>0.2242990654205608</v>
       </c>
       <c r="I35" t="n">
+        <v>0.2149532710280374</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2523364485981308</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.7476635514018691</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.4953271028037383</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.3465346534653464</v>
       </c>
     </row>
     <row r="36">
@@ -1797,7 +2114,7 @@
         <v>0.8691588785046729</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8971962616822449</v>
+        <v>0.9065420560747662</v>
       </c>
       <c r="F36" t="n">
         <v>0.7429906542056075</v>
@@ -1806,13 +2123,22 @@
         <v>0.2149532710280374</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2429906542056074</v>
+        <v>0.2149532710280374</v>
       </c>
       <c r="I36" t="n">
+        <v>0.1962616822429906</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2242990654205609</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.7663551401869159</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>0.4205607476635514</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7722772277227723</v>
       </c>
     </row>
     <row r="37">
@@ -1838,19 +2164,28 @@
         <v>0.5560747663551402</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9439252336448599</v>
+        <v>0.9532710280373831</v>
       </c>
       <c r="G37" t="n">
         <v>0.09345794392523364</v>
       </c>
       <c r="H37" t="n">
-        <v>0.102803738317757</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="I37" t="n">
+        <v>0.09345794392523364</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.1121495327102804</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.8224299065420561</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>0.1214953271028037</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.9702970297029703</v>
       </c>
     </row>
     <row r="38">
@@ -1882,14 +2217,21 @@
         <v>0.8504672897196262</v>
       </c>
       <c r="H38" t="n">
-        <v>0.719626168224299</v>
+        <v>0.8411214953271028</v>
       </c>
       <c r="I38" t="n">
+        <v>0.8971962616822432</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.7289719626168224</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.2710280373831775</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.7009345794392523</v>
       </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1914,7 +2256,7 @@
         <v>0.7757009345794392</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8130841121495327</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="G39" t="n">
         <v>0.9906542056074774</v>
@@ -1923,11 +2265,20 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6448598130841121</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
+      <c r="K39" t="n">
+        <v>0.6448598130841121</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0297029702970297</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1949,22 +2300,31 @@
         <v>0.7289719626168224</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9158878504672896</v>
+        <v>0.9252336448598131</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8457943925233644</v>
+        <v>0.8551401869158879</v>
       </c>
       <c r="G40" t="n">
         <v>0.9065420560747662</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9252336448598134</v>
+        <v>0.9158878504672898</v>
       </c>
       <c r="I40" t="n">
+        <v>0.9252336448598156</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.9158878504672898</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.5981308411214953</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.9439252336448598</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1881188118811881</v>
       </c>
     </row>
     <row r="41">
@@ -1996,13 +2356,22 @@
         <v>0.7943925233644886</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8504672897196262</v>
+        <v>0.7943925233644871</v>
       </c>
       <c r="I41" t="n">
+        <v>0.8785046728971959</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8037383177570093</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.6542056074766355</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.9065420560747682</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.2376237623762376</v>
       </c>
     </row>
     <row r="42">
@@ -2025,22 +2394,31 @@
         <v>0.4672897196261682</v>
       </c>
       <c r="E42" t="n">
+        <v>0.9158878504672896</v>
+      </c>
+      <c r="F42" t="n">
         <v>0.9065420560747662</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.8971962616822429</v>
       </c>
       <c r="G42" t="n">
         <v>0.8971962616822747</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9158878504672896</v>
+        <v>0.8878504672897196</v>
       </c>
       <c r="I42" t="n">
+        <v>0.9439252336448597</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.8971962616822435</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.3364485981308411</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.9532710280373831</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1584158415841584</v>
       </c>
     </row>
     <row r="43">
@@ -2075,10 +2453,19 @@
         <v>0.9813084112149532</v>
       </c>
       <c r="I43" t="n">
+        <v>0.9813084112149532</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9813084112149532</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.5233644859813084</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.9906542056074765</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0594059405940594</v>
       </c>
     </row>
     <row r="44">
@@ -2101,22 +2488,31 @@
         <v>0.8551401869158879</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9439252336448597</v>
+        <v>0.9532710280373831</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9065420560747662</v>
+        <v>0.9158878504672896</v>
       </c>
       <c r="G44" t="n">
         <v>0.94392523364486</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9719626168224301</v>
+        <v>0.9439252336448598</v>
       </c>
       <c r="I44" t="n">
+        <v>0.9626168224299065</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9719626168224298</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.4018691588785047</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>0.971962616822449</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.07920792079207921</v>
       </c>
     </row>
     <row r="45">
@@ -2142,20 +2538,29 @@
         <v>0.6915887850467289</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9252336448598132</v>
+        <v>0.9345794392523363</v>
       </c>
       <c r="G45" t="n">
         <v>0.6822429906542056</v>
       </c>
       <c r="H45" t="n">
+        <v>0.6728971962616822</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.6822429906542056</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.4766355140186915</v>
       </c>
       <c r="J45" t="n">
         <v>0.6822429906542056</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.4766355140186915</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6822429906542056</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6039603960396039</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2186,13 +2591,22 @@
         <v>0.7009345794392523</v>
       </c>
       <c r="H46" t="n">
+        <v>0.7009345794392523</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.7009345794392523</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.7102803738317757</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>0.5700934579439252</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.7757009345794392</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8316831683168314</v>
       </c>
     </row>
     <row r="47">
@@ -2224,13 +2638,22 @@
         <v>0.7102803738317757</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7383177570093458</v>
+        <v>0.7102803738317757</v>
       </c>
       <c r="I47" t="n">
+        <v>0.7102803738317757</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.719626168224299</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.5794392523364486</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.8037383177570093</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.6831683168316832</v>
       </c>
     </row>
     <row r="48">
@@ -2262,13 +2685,22 @@
         <v>0.7476635514018691</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7663551401869164</v>
+        <v>0.7476635514018691</v>
       </c>
       <c r="I48" t="n">
+        <v>0.7570093457943925</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.7570093457943925</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.4859813084112149</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.8691588785046729</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -2300,13 +2732,22 @@
         <v>0.7570093457943925</v>
       </c>
       <c r="H49" t="n">
-        <v>0.794392523364486</v>
+        <v>0.7663551401869159</v>
       </c>
       <c r="I49" t="n">
+        <v>0.7289719626168224</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.7757009345794392</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.5420560747663551</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.9158878504672896</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.4455445544554456</v>
       </c>
     </row>
     <row r="50">
@@ -2338,13 +2779,22 @@
         <v>0.6915887850467289</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7009345794392523</v>
+        <v>0.6915887850467289</v>
       </c>
       <c r="I50" t="n">
         <v>0.6915887850467289</v>
       </c>
       <c r="J50" t="n">
+        <v>0.7009345794392523</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.6915887850467289</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.719626168224299</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8514851485148515</v>
       </c>
     </row>
     <row r="51">
@@ -2376,14 +2826,23 @@
         <v>0.719626168224299</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6915887850467289</v>
+        <v>0.719626168224299</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1962616822429906</v>
+        <v>0.7476635514018691</v>
       </c>
       <c r="J51" t="n">
         <v>0.6915887850467289</v>
       </c>
+      <c r="K51" t="n">
+        <v>0.1962616822429906</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.6915887850467289</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.653465346534653</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2414,13 +2873,22 @@
         <v>0.7289719626168224</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7757009345794392</v>
+        <v>0.7289719626168224</v>
       </c>
       <c r="I52" t="n">
+        <v>0.719626168224299</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.7663551401869159</v>
+      </c>
+      <c r="K52" t="n">
         <v>0.6355140186915887</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.8971962616822431</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="53">
@@ -2452,13 +2920,22 @@
         <v>0.7757009345794392</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8691588785046729</v>
+        <v>0.7757009345794392</v>
       </c>
       <c r="I53" t="n">
+        <v>0.8598130841121495</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.8130841121495327</v>
+      </c>
+      <c r="K53" t="n">
         <v>0.2523364485981308</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>0.9626168224299064</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5544554455445527</v>
       </c>
     </row>
     <row r="54">
@@ -2481,22 +2958,31 @@
         <v>0.8551401869158879</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9626168224299064</v>
+        <v>0.9719626168224298</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9345794392523364</v>
+        <v>0.9439252336448598</v>
       </c>
       <c r="G54" t="n">
         <v>0.766355140186916</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8971962616822432</v>
+        <v>0.7570093457943925</v>
       </c>
       <c r="I54" t="n">
+        <v>0.8411214953271028</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.8878504672897196</v>
+      </c>
+      <c r="K54" t="n">
         <v>0.6635514018691588</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>0.9345794392523366</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.3762376237623762</v>
       </c>
     </row>
     <row r="55">
@@ -2528,13 +3014,22 @@
         <v>0.7383177570093458</v>
       </c>
       <c r="H55" t="n">
-        <v>0.7476635514018691</v>
+        <v>0.7383177570093458</v>
       </c>
       <c r="I55" t="n">
+        <v>0.7663551401869159</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.7383177570093458</v>
+      </c>
+      <c r="K55" t="n">
         <v>0.3551401869158878</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.794392523364486</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.4257425742574257</v>
       </c>
     </row>
     <row r="56">
@@ -2557,23 +3052,30 @@
         <v>0.2289719626168224</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9532710280373831</v>
+        <v>0.9626168224299071</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9719626168224299</v>
+        <v>0.9813084112149532</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9906542056074766</v>
+        <v>0.9906542056074767</v>
       </c>
       <c r="I56" t="n">
+        <v>0.9906542056074765</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.9906542056074767</v>
+      </c>
+      <c r="K56" t="n">
         <v>0.3271028037383177</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.9813084112149532</v>
       </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2604,13 +3106,22 @@
         <v>0.9532710280373831</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9065420560747712</v>
+        <v>0.9532710280373831</v>
       </c>
       <c r="I57" t="n">
+        <v>0.9158878504672897</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.9252336448598132</v>
+      </c>
+      <c r="K57" t="n">
         <v>0.205607476635514</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.8504672897196262</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.3168316831683168</v>
       </c>
     </row>
     <row r="58">
@@ -2633,22 +3144,31 @@
         <v>0.1308411214953271</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9813084112149532</v>
+        <v>0.9906542056074765</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9813084112149532</v>
+        <v>0.9906542056074766</v>
       </c>
       <c r="G58" t="n">
         <v>0.9345794392523364</v>
       </c>
       <c r="H58" t="n">
+        <v>0.9252336448598134</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9532710280373831</v>
+      </c>
+      <c r="J58" t="n">
         <v>0.9439252336448597</v>
       </c>
-      <c r="I58" t="n">
+      <c r="K58" t="n">
         <v>0.4579439252336448</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.8598130841121495</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.405940594059406</v>
       </c>
     </row>
     <row r="59">
@@ -2674,19 +3194,28 @@
         <v>0.8224299065420561</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8691588785046729</v>
+        <v>0.8785046728971962</v>
       </c>
       <c r="G59" t="n">
         <v>0.8691588785046729</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8224299065420561</v>
+        <v>0.8785046728971962</v>
       </c>
       <c r="I59" t="n">
+        <v>0.8878504672897196</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8504672897196262</v>
+      </c>
+      <c r="K59" t="n">
         <v>0.1775700934579439</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.7289719626168224</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.6138613861386139</v>
       </c>
     </row>
     <row r="60">
@@ -2718,13 +3247,22 @@
         <v>0.9719626168224298</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9626168224299065</v>
+        <v>0.9626168224299064</v>
       </c>
       <c r="I60" t="n">
+        <v>0.9065420560747665</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.9626168224299068</v>
+      </c>
+      <c r="K60" t="n">
         <v>0.2429906542056074</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.9252336448598133</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.2623762376237624</v>
       </c>
     </row>
     <row r="61">
@@ -2747,22 +3285,31 @@
         <v>0.1308411214953271</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9906542056074767</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9906542056074787</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>0.9252336448598134</v>
       </c>
       <c r="H61" t="n">
+        <v>0.9345794392523364</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9345794392523363</v>
+      </c>
+      <c r="J61" t="n">
         <v>0.9532710280373831</v>
       </c>
-      <c r="I61" t="n">
+      <c r="K61" t="n">
         <v>0.3738317757009346</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.8878504672897196</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.4554455445544555</v>
       </c>
     </row>
     <row r="62">
@@ -2788,19 +3335,28 @@
         <v>0.7757009345794392</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8130841121495327</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="G62" t="n">
         <v>0.9719626168224298</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9345794392523369</v>
+        <v>0.97196261682243</v>
       </c>
       <c r="I62" t="n">
+        <v>0.9719626168224299</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.9345794392523366</v>
+      </c>
+      <c r="K62" t="n">
         <v>0.3644859813084112</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.8785046728971962</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.2623762376237624</v>
       </c>
     </row>
     <row r="63">
@@ -2832,13 +3388,22 @@
         <v>0.8224299065420563</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7850467289719626</v>
+        <v>0.8224299065420564</v>
       </c>
       <c r="I63" t="n">
+        <v>0.8224299065420561</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.7943925233644863</v>
+      </c>
+      <c r="K63" t="n">
         <v>0.2616822429906542</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.7476635514018691</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6732673267326733</v>
       </c>
     </row>
     <row r="64">
@@ -2873,10 +3438,19 @@
         <v>0.8317757009345794</v>
       </c>
       <c r="I64" t="n">
+        <v>0.7850467289719626</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.8411214953271028</v>
+      </c>
+      <c r="K64" t="n">
         <v>0.2990654205607476</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>0.8317757009345794</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7079207920792079</v>
       </c>
     </row>
     <row r="65">
@@ -2902,19 +3476,28 @@
         <v>0.8738317757009346</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8457943925233644</v>
+        <v>0.8551401869158879</v>
       </c>
       <c r="G65" t="n">
         <v>0.9158878504672897</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8878504672897196</v>
+        <v>0.8971962616822429</v>
       </c>
       <c r="I65" t="n">
+        <v>0.8504672897196265</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.9065420560747662</v>
+      </c>
+      <c r="K65" t="n">
         <v>0.308411214953271</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.8411214953271028</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="66">
@@ -2946,13 +3529,22 @@
         <v>0.8878504672897196</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8598130841121495</v>
+        <v>0.9065420560747662</v>
       </c>
       <c r="I66" t="n">
+        <v>0.8037383177570093</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.8691588785046729</v>
+      </c>
+      <c r="K66" t="n">
         <v>0.2149532710280374</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.7850467289719626</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.5148514851485149</v>
       </c>
     </row>
     <row r="67">
@@ -2984,13 +3576,22 @@
         <v>0.8130841121495327</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8037383177570093</v>
+        <v>0.8130841121495327</v>
       </c>
       <c r="I67" t="n">
+        <v>0.8130841121495327</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.8317757009345794</v>
+      </c>
+      <c r="K67" t="n">
         <v>0.2803738317757009</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.7663551401869159</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.7227722772277225</v>
       </c>
     </row>
     <row r="68">
@@ -3022,14 +3623,23 @@
         <v>0.8411214953271028</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8130841121495327</v>
+        <v>0.8504672897196262</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2897196261682248</v>
+        <v>0.7757009345794392</v>
       </c>
       <c r="J68" t="n">
         <v>0.8224299065420561</v>
       </c>
+      <c r="K68" t="n">
+        <v>0.2897196261682248</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.8224299065420561</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.7079207920792079</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3060,13 +3670,22 @@
         <v>0.8037383177570093</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7570093457943925</v>
+        <v>0.8037383177570093</v>
       </c>
       <c r="I69" t="n">
+        <v>0.8691588785046729</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.7850467289719626</v>
+      </c>
+      <c r="K69" t="n">
         <v>0.2336448598130841</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.7383177570093458</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7425742574257426</v>
       </c>
     </row>
     <row r="70">
@@ -3092,19 +3711,28 @@
         <v>0.8878504672897196</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8878504672897196</v>
+        <v>0.8971962616822429</v>
       </c>
       <c r="G70" t="n">
         <v>0.8598130841121495</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8411214953271028</v>
+        <v>0.8598130841121495</v>
       </c>
       <c r="I70" t="n">
+        <v>0.794392523364486</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.8598130841121495</v>
+      </c>
+      <c r="K70" t="n">
         <v>0.1869158878504673</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>0.7570093457943925</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="71">
@@ -3130,19 +3758,28 @@
         <v>0.8411214953271028</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8457943925233644</v>
+        <v>0.8551401869158879</v>
       </c>
       <c r="G71" t="n">
         <v>0.8785046728971962</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8785046728971948</v>
+        <v>0.8691588785046729</v>
       </c>
       <c r="I71" t="n">
+        <v>0.8317757009345794</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.878504672897196</v>
+      </c>
+      <c r="K71" t="n">
         <v>0.2242990654205607</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.8130841121495327</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.5841584158415842</v>
       </c>
     </row>
     <row r="72">
@@ -3174,13 +3811,22 @@
         <v>0.7850467289719626</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7289719626168224</v>
+        <v>0.7850467289719626</v>
       </c>
       <c r="I72" t="n">
+        <v>0.7383177570093458</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.7476635514018691</v>
+      </c>
+      <c r="K72" t="n">
         <v>0.1401869158878505</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.7102803738317757</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8217821782178218</v>
       </c>
     </row>
     <row r="73">
@@ -3212,13 +3858,22 @@
         <v>0.6728971962616822</v>
       </c>
       <c r="H73" t="n">
+        <v>0.6822429906542056</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.6728971962616822</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
+        <v>0.6728971962616822</v>
+      </c>
+      <c r="K73" t="n">
         <v>0.3177570093457944</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.6635514018691588</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.98019801980198</v>
       </c>
     </row>
     <row r="74">
@@ -3250,14 +3905,21 @@
         <v>0.6448598130841121</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5794392523364486</v>
+        <v>0.6448598130841121</v>
       </c>
       <c r="I74" t="n">
+        <v>0.6355140186915887</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5887850467289719</v>
+      </c>
+      <c r="K74" t="n">
         <v>0.03738317757009346</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.2803738317757009</v>
       </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3291,10 +3953,19 @@
         <v>0.6355140186915887</v>
       </c>
       <c r="I75" t="n">
+        <v>0.6542056074766355</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.6448598130841121</v>
+      </c>
+      <c r="K75" t="n">
         <v>0.102803738317757</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.579439252336449</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.1287128712871287</v>
       </c>
     </row>
     <row r="76">
@@ -3326,13 +3997,22 @@
         <v>0.5233644859813084</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2803738317757009</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="I76" t="n">
+        <v>0.5327102803738317</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.308411214953271</v>
+      </c>
+      <c r="K76" t="n">
         <v>0.06542056074766354</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.1495327102803738</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.5643564356435644</v>
       </c>
     </row>
     <row r="77">
@@ -3364,13 +4044,22 @@
         <v>0.5327102803738317</v>
       </c>
       <c r="H77" t="n">
-        <v>0.308411214953271</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="I77" t="n">
+        <v>0.4953271028037383</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.3364485981308411</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.1214953271028038</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.1775700934579439</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.5445544554455446</v>
       </c>
     </row>
     <row r="78">
@@ -3402,13 +4091,22 @@
         <v>0.6542056074766355</v>
       </c>
       <c r="H78" t="n">
-        <v>0.616822429906542</v>
+        <v>0.6542056074766355</v>
       </c>
       <c r="I78" t="n">
+        <v>0.6448598130841121</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.6261682242990654</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.08411214953271028</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.4485981308411215</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0891089108910891</v>
       </c>
     </row>
     <row r="79">
@@ -3440,13 +4138,22 @@
         <v>0.6261682242990654</v>
       </c>
       <c r="H79" t="n">
-        <v>0.514018691588785</v>
+        <v>0.6261682242990654</v>
       </c>
       <c r="I79" t="n">
+        <v>0.6074766355140186</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5420560747663551</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.1121495327102804</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.308411214953271</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.2178217821782177</v>
       </c>
     </row>
     <row r="80">
@@ -3478,13 +4185,22 @@
         <v>0.6635514018691588</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5981308411214954</v>
+        <v>0.6635514018691588</v>
       </c>
       <c r="I80" t="n">
+        <v>0.6635514018691588</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.6074766355140186</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.009345794392523364</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.3738317757009346</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.09900990099009901</v>
       </c>
     </row>
     <row r="81">
@@ -3516,13 +4232,22 @@
         <v>0.5981308411214953</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3364485981308411</v>
+        <v>0.5981308411214953</v>
       </c>
       <c r="I81" t="n">
+        <v>0.5700934579439252</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.3831775700934579</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01869158878504673</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.1401869158878505</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.4356435643564356</v>
       </c>
     </row>
     <row r="82">
@@ -3554,13 +4279,22 @@
         <v>0.4953271028037383</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3457943925233645</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="I82" t="n">
+        <v>0.5607476635514018</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.3644859813084112</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.02803738317757009</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.1588785046728972</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.6633663366336634</v>
       </c>
     </row>
     <row r="83">
@@ -3592,13 +4326,22 @@
         <v>0.5700934579439252</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4112149532710371</v>
+        <v>0.5794392523364486</v>
       </c>
       <c r="I83" t="n">
+        <v>0.5794392523364486</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4392523364485981</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.07476635514018691</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.1962616822429906</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.6237623762376238</v>
       </c>
     </row>
     <row r="84">
@@ -3630,13 +4373,22 @@
         <v>0.3644859813084112</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2242990654205607</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="I84" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.2336448598130841</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.1308411214953271</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>0.2149532710280374</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.9306930693069307</v>
       </c>
     </row>
     <row r="85">
@@ -3668,13 +4420,22 @@
         <v>0.5794392523364486</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4485981308411218</v>
+        <v>0.5607476635514026</v>
       </c>
       <c r="I85" t="n">
+        <v>0.5981308411214953</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.4672897196261682</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.09345794392523364</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>0.2242990654205607</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.3960396039603961</v>
       </c>
     </row>
     <row r="86">
@@ -3706,13 +4467,22 @@
         <v>0.6074766355140186</v>
       </c>
       <c r="H86" t="n">
-        <v>0.485981308411216</v>
+        <v>0.6074766355140186</v>
       </c>
       <c r="I86" t="n">
+        <v>0.6261682242990654</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.504672897196262</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.05607476635514018</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.3644859813084112</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="87">
@@ -3744,13 +4514,22 @@
         <v>0.514018691588785</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3551401869158878</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="I87" t="n">
+        <v>0.514018691588785</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.1588785046728972</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.205607476635514</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.6386138613861386</v>
       </c>
     </row>
     <row r="88">
@@ -3782,13 +4561,22 @@
         <v>0.5514018691588792</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2336448598130841</v>
+        <v>0.5700934579439252</v>
       </c>
       <c r="I88" t="n">
+        <v>0.5514018691588796</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.2616822429906542</v>
+      </c>
+      <c r="K88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>0.07476635514018691</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="89">
@@ -3820,13 +4608,22 @@
         <v>0.616822429906542</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4953271028037383</v>
+        <v>0.616822429906542</v>
       </c>
       <c r="I89" t="n">
+        <v>0.616822429906542</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.514018691588785</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.04672897196261682</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>0.3457943925233645</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.2277227722772277</v>
       </c>
     </row>
     <row r="90">
@@ -3858,13 +4655,22 @@
         <v>0.4859813084112151</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3738317757009346</v>
+        <v>0.4859813084112153</v>
       </c>
       <c r="I90" t="n">
+        <v>0.5233644859813084</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.3551401869158878</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.1495327102803738</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>0.2710280373831775</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.6930693069306919</v>
       </c>
     </row>
     <row r="91">
@@ -3890,19 +4696,28 @@
         <v>0.2429906542056074</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9158878504672906</v>
+        <v>0.9252336448598144</v>
       </c>
       <c r="G91" t="n">
         <v>0.2336448598130841</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1401869158878505</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="I91" t="n">
+        <v>0.2429906542056096</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.1495327102803738</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.1682242990654206</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>0.102803738317757</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.9900990099009901</v>
       </c>
     </row>
     <row r="92">
@@ -3925,23 +4740,30 @@
         <v>0.1308411214953271</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9252336448598134</v>
+        <v>0.9345794392523366</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9532710280373831</v>
+        <v>0.9626168224299066</v>
       </c>
       <c r="G92" t="n">
         <v>0.5887850467289719</v>
       </c>
       <c r="H92" t="n">
+        <v>0.5887850467289719</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.5887850467289719</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.6635514018691588</v>
       </c>
-      <c r="I92" t="n">
+      <c r="K92" t="n">
         <v>0.616822429906542</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>0.6448598130841121</v>
       </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3966,19 +4788,28 @@
         <v>0.808411214953271</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8130841121495327</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="G93" t="n">
         <v>0.5046728971962616</v>
       </c>
       <c r="H93" t="n">
-        <v>0.6261682242990654</v>
+        <v>0.4953271028037383</v>
       </c>
       <c r="I93" t="n">
+        <v>0.5046728971962616</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.616822429906542</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.6074766355140186</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.5981308411214954</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.2475247524752475</v>
       </c>
     </row>
     <row r="94">
@@ -4010,13 +4841,22 @@
         <v>0.4392523364485981</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5420560747663551</v>
+        <v>0.4392523364485981</v>
       </c>
       <c r="I94" t="n">
+        <v>0.4299065420560748</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5514018691588785</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.5046728971962616</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.5233644859813084</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="95">
@@ -4042,20 +4882,29 @@
         <v>0.8598130841121495</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8457943925233644</v>
+        <v>0.8551401869158879</v>
       </c>
       <c r="G95" t="n">
         <v>0.5607476635514018</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6448598130841121</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="I95" t="n">
-        <v>0.6822429906542056</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="J95" t="n">
         <v>0.6355140186915887</v>
       </c>
+      <c r="K95" t="n">
+        <v>0.6822429906542056</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.6355140186915887</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.2079207920792079</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4086,13 +4935,22 @@
         <v>0.4485981308411249</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5700934579439279</v>
+        <v>0.4485981308411264</v>
       </c>
       <c r="I96" t="n">
+        <v>0.4485981308411214</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5700934579439253</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.4672897196261682</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.5607476635514024</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.297029702970297</v>
       </c>
     </row>
     <row r="97">
@@ -4124,13 +4982,22 @@
         <v>0.4579439252336448</v>
       </c>
       <c r="H97" t="n">
+        <v>0.4579439252336448</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.4859813084112149</v>
+      </c>
+      <c r="J97" t="n">
         <v>0.5233644859813084</v>
       </c>
-      <c r="I97" t="n">
+      <c r="K97" t="n">
         <v>0.411214953271028</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>0.5046728971962628</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.3861386138613861</v>
       </c>
     </row>
     <row r="98">
@@ -4162,13 +5029,22 @@
         <v>0.4766355140186915</v>
       </c>
       <c r="H98" t="n">
-        <v>0.588785046728972</v>
+        <v>0.4766355140186915</v>
       </c>
       <c r="I98" t="n">
+        <v>0.4672897196261684</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5981308411214953</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.4299065420560748</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>0.5700934579439252</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.2772277227722772</v>
       </c>
     </row>
     <row r="99">
@@ -4200,13 +5076,22 @@
         <v>0.4018691588785047</v>
       </c>
       <c r="H99" t="n">
+        <v>0.4018691588785047</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.3831775700934579</v>
+      </c>
+      <c r="J99" t="n">
         <v>0.4205607476635514</v>
       </c>
-      <c r="I99" t="n">
+      <c r="K99" t="n">
         <v>0.4953271028037383</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>0.4392523364485981</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7524752475247525</v>
       </c>
     </row>
     <row r="100">
@@ -4238,14 +5123,23 @@
         <v>0.3738317757009346</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4299065420560748</v>
+        <v>0.3644859813084112</v>
       </c>
       <c r="I100" t="n">
-        <v>0.514018691588785</v>
+        <v>0.3925233644859813</v>
       </c>
       <c r="J100" t="n">
         <v>0.4299065420560748</v>
       </c>
+      <c r="K100" t="n">
+        <v>0.514018691588785</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.4299065420560748</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.7623762376237624</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4276,13 +5170,22 @@
         <v>0.3551401869158878</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3831775700934579</v>
+        <v>0.3551401869158878</v>
       </c>
       <c r="I101" t="n">
+        <v>0.3551401869158878</v>
+      </c>
+      <c r="J101" t="n">
         <v>0.3925233644859813</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
+        <v>0.3925233644859813</v>
+      </c>
+      <c r="L101" t="n">
         <v>0.4018691588785047</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8019801980198019</v>
       </c>
     </row>
     <row r="102">
@@ -4314,14 +5217,23 @@
         <v>0.4299065420560748</v>
       </c>
       <c r="H102" t="n">
-        <v>0.4766355140186915</v>
+        <v>0.411214953271028</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5514018691588785</v>
+        <v>0.4392523364485981</v>
       </c>
       <c r="J102" t="n">
         <v>0.4859813084112149</v>
       </c>
+      <c r="K102" t="n">
+        <v>0.5514018691588785</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.4859813084112149</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.594059405940594</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4346,19 +5258,28 @@
         <v>0.8411214953271028</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7943925233644862</v>
+        <v>0.8037383177570093</v>
       </c>
       <c r="G103" t="n">
         <v>0.299065420560748</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3644859813084112</v>
+        <v>0.2990654205607479</v>
       </c>
       <c r="I103" t="n">
+        <v>0.3271028037383177</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.3457943925233645</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.3831775700934579</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>0.3831775700934579</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.8712871287128707</v>
       </c>
     </row>
     <row r="104">
@@ -4390,13 +5311,22 @@
         <v>0.4672897196261682</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5514018691588785</v>
+        <v>0.4672897196261682</v>
       </c>
       <c r="I104" t="n">
+        <v>0.457943925233645</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.5607476635514018</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.4485981308411214</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>0.5420560747663553</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.3267326732673267</v>
       </c>
     </row>
     <row r="105">
@@ -4428,13 +5358,22 @@
         <v>0.3878504672897196</v>
       </c>
       <c r="H105" t="n">
+        <v>0.3831775700934579</v>
+      </c>
+      <c r="I105" t="n">
         <v>0.4018691588785047</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
+        <v>0.4018691588785047</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.4205607476635514</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>0.411214953271028</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.7920792079207921</v>
       </c>
     </row>
     <row r="106">
@@ -4466,13 +5405,22 @@
         <v>0.411214953271028</v>
       </c>
       <c r="H106" t="n">
+        <v>0.4299065420560748</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.4112149532710285</v>
+      </c>
+      <c r="J106" t="n">
         <v>0.4579439252336448</v>
       </c>
-      <c r="I106" t="n">
+      <c r="K106" t="n">
         <v>0.5607476635514018</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>0.4672897196261682</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.6386138613861386</v>
       </c>
     </row>
     <row r="107">
@@ -4504,13 +5452,22 @@
         <v>0.2897196261682243</v>
       </c>
       <c r="H107" t="n">
-        <v>0.2616822429906542</v>
+        <v>0.2897196261682243</v>
       </c>
       <c r="I107" t="n">
+        <v>0.2803738317757009</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.2710280373831775</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.4392523364485981</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>0.3177570093457944</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.900990099009901</v>
       </c>
     </row>
     <row r="108">
@@ -4542,13 +5499,22 @@
         <v>0.3457943925233645</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3271028037383177</v>
+        <v>0.3457943925233645</v>
       </c>
       <c r="I108" t="n">
         <v>0.3457943925233645</v>
       </c>
       <c r="J108" t="n">
+        <v>0.3271028037383177</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.3457943925233645</v>
+      </c>
+      <c r="L108" t="n">
         <v>0.3364485981308411</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.8118811881188119</v>
       </c>
     </row>
     <row r="109">
@@ -4580,13 +5546,22 @@
         <v>0.1308411214953271</v>
       </c>
       <c r="H109" t="n">
-        <v>0.08411214953271028</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="I109" t="n">
-        <v>0.5327102803738317</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="J109" t="n">
         <v>0.08411214953271028</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.5327102803738317</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.08411214953271028</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MERGED_DATE_FIT.xlsx
+++ b/Analyzer Results/RESULTS_MERGED_DATE_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,7 +538,6 @@
       <c r="L2" t="n">
         <v>0.1308411214953271</v>
       </c>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -588,9 +582,6 @@
       <c r="L3" t="n">
         <v>0.1121495327102806</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.1386138613861386</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -635,9 +626,6 @@
       <c r="L4" t="n">
         <v>0.2523364485981308</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.0396039603960396</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -682,9 +670,6 @@
       <c r="L5" t="n">
         <v>0.2897196261682243</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.009900990099009901</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -729,9 +714,6 @@
       <c r="L6" t="n">
         <v>0.2336448598130841</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.04950495049504951</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -776,9 +758,6 @@
       <c r="L7" t="n">
         <v>0.2429906542056074</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.0198019801980198</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -823,9 +802,6 @@
       <c r="L8" t="n">
         <v>0.2616822429906542</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.1089108910891089</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -870,9 +846,6 @@
       <c r="L9" t="n">
         <v>0.09345794392523364</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.5742574257425742</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -917,9 +890,6 @@
       <c r="L10" t="n">
         <v>0.009345794392523364</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.9603960396039604</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,9 +934,6 @@
       <c r="L11" t="n">
         <v>0.01869158878504673</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.9405940594059407</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1011,9 +978,6 @@
       <c r="L12" t="n">
         <v>0.05607476635514018</v>
       </c>
-      <c r="M12" t="n">
-        <v>0.8415841584158416</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1058,9 +1022,6 @@
       <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.9504950495049505</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1105,9 +1066,6 @@
       <c r="L14" t="n">
         <v>0.04672897196261682</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.8811881188118812</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1152,9 +1110,6 @@
       <c r="L15" t="n">
         <v>0.1682242990654206</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.2871287128712872</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1199,9 +1154,6 @@
       <c r="L16" t="n">
         <v>0.1869158878504673</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.1485148514851485</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1246,9 +1198,6 @@
       <c r="L17" t="n">
         <v>0.03738317757009346</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.9158415841584159</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1293,9 +1242,6 @@
       <c r="L18" t="n">
         <v>0.06542056074766354</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.8910891089108911</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1340,9 +1286,6 @@
       <c r="L19" t="n">
         <v>0.02803738317757009</v>
       </c>
-      <c r="M19" t="n">
-        <v>0.9158415841584159</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1387,7 +1330,6 @@
       <c r="L20" t="n">
         <v>0.6074766355140186</v>
       </c>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1432,9 +1374,6 @@
       <c r="L21" t="n">
         <v>0.514018691588785</v>
       </c>
-      <c r="M21" t="n">
-        <v>0.198019801980198</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1479,9 +1418,6 @@
       <c r="L22" t="n">
         <v>0.616822429906542</v>
       </c>
-      <c r="M22" t="n">
-        <v>0.1188118811881188</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1526,9 +1462,6 @@
       <c r="L23" t="n">
         <v>0.6261682242990654</v>
       </c>
-      <c r="M23" t="n">
-        <v>0.1683168316831683</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1573,9 +1506,6 @@
       <c r="L24" t="n">
         <v>0.6728971962616822</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1620,9 +1550,6 @@
       <c r="L25" t="n">
         <v>0.6542056074766355</v>
       </c>
-      <c r="M25" t="n">
-        <v>0.06930693069306931</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1667,9 +1594,6 @@
       <c r="L26" t="n">
         <v>0.2990654205607476</v>
       </c>
-      <c r="M26" t="n">
-        <v>0.8613861386138614</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1714,9 +1638,6 @@
       <c r="L27" t="n">
         <v>0.5327102803738317</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.4158415841584158</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1761,9 +1682,6 @@
       <c r="L28" t="n">
         <v>0.5514018691588785</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.3069306930693069</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1808,9 +1726,6 @@
       <c r="L29" t="n">
         <v>0.3271028037383177</v>
       </c>
-      <c r="M29" t="n">
-        <v>0.3366336633663367</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1855,9 +1770,6 @@
       <c r="L30" t="n">
         <v>0.3551401869158878</v>
       </c>
-      <c r="M30" t="n">
-        <v>0.7326732673267327</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1902,9 +1814,6 @@
       <c r="L31" t="n">
         <v>0.5887850467289719</v>
       </c>
-      <c r="M31" t="n">
-        <v>0.1782178217821782</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1949,9 +1858,6 @@
       <c r="L32" t="n">
         <v>0.3925233644859813</v>
       </c>
-      <c r="M32" t="n">
-        <v>0.7821782178217822</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1996,9 +1902,6 @@
       <c r="L33" t="n">
         <v>0.4766355140186915</v>
       </c>
-      <c r="M33" t="n">
-        <v>0.3564356435643564</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2043,9 +1946,6 @@
       <c r="L34" t="n">
         <v>0.4579439252336459</v>
       </c>
-      <c r="M34" t="n">
-        <v>0.4653465346534654</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2090,9 +1990,6 @@
       <c r="L35" t="n">
         <v>0.4953271028037383</v>
       </c>
-      <c r="M35" t="n">
-        <v>0.3465346534653464</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2137,9 +2034,6 @@
       <c r="L36" t="n">
         <v>0.4205607476635514</v>
       </c>
-      <c r="M36" t="n">
-        <v>0.7722772277227723</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2184,9 +2078,6 @@
       <c r="L37" t="n">
         <v>0.1214953271028037</v>
       </c>
-      <c r="M37" t="n">
-        <v>0.9702970297029703</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2231,7 +2122,6 @@
       <c r="L38" t="n">
         <v>0.7009345794392523</v>
       </c>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2276,9 +2166,6 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="n">
-        <v>0.0297029702970297</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2323,9 +2210,6 @@
       <c r="L40" t="n">
         <v>0.9439252336448598</v>
       </c>
-      <c r="M40" t="n">
-        <v>0.1881188118811881</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2370,9 +2254,6 @@
       <c r="L41" t="n">
         <v>0.9065420560747682</v>
       </c>
-      <c r="M41" t="n">
-        <v>0.2376237623762376</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2417,9 +2298,6 @@
       <c r="L42" t="n">
         <v>0.9532710280373831</v>
       </c>
-      <c r="M42" t="n">
-        <v>0.1584158415841584</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2464,9 +2342,6 @@
       <c r="L43" t="n">
         <v>0.9906542056074765</v>
       </c>
-      <c r="M43" t="n">
-        <v>0.0594059405940594</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2511,9 +2386,6 @@
       <c r="L44" t="n">
         <v>0.971962616822449</v>
       </c>
-      <c r="M44" t="n">
-        <v>0.07920792079207921</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2558,9 +2430,6 @@
       <c r="L45" t="n">
         <v>0.6822429906542056</v>
       </c>
-      <c r="M45" t="n">
-        <v>0.6039603960396039</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2605,9 +2474,6 @@
       <c r="L46" t="n">
         <v>0.7757009345794392</v>
       </c>
-      <c r="M46" t="n">
-        <v>0.8316831683168314</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2652,9 +2518,6 @@
       <c r="L47" t="n">
         <v>0.8037383177570093</v>
       </c>
-      <c r="M47" t="n">
-        <v>0.6831683168316832</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2699,9 +2562,6 @@
       <c r="L48" t="n">
         <v>0.8691588785046729</v>
       </c>
-      <c r="M48" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2746,9 +2606,6 @@
       <c r="L49" t="n">
         <v>0.9158878504672896</v>
       </c>
-      <c r="M49" t="n">
-        <v>0.4455445544554456</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2793,9 +2650,6 @@
       <c r="L50" t="n">
         <v>0.719626168224299</v>
       </c>
-      <c r="M50" t="n">
-        <v>0.8514851485148515</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2840,9 +2694,6 @@
       <c r="L51" t="n">
         <v>0.6915887850467289</v>
       </c>
-      <c r="M51" t="n">
-        <v>0.653465346534653</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2887,9 +2738,6 @@
       <c r="L52" t="n">
         <v>0.8971962616822431</v>
       </c>
-      <c r="M52" t="n">
-        <v>0.4752475247524752</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2934,9 +2782,6 @@
       <c r="L53" t="n">
         <v>0.9626168224299064</v>
       </c>
-      <c r="M53" t="n">
-        <v>0.5544554455445527</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2981,9 +2826,6 @@
       <c r="L54" t="n">
         <v>0.9345794392523366</v>
       </c>
-      <c r="M54" t="n">
-        <v>0.3762376237623762</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3028,9 +2870,6 @@
       <c r="L55" t="n">
         <v>0.794392523364486</v>
       </c>
-      <c r="M55" t="n">
-        <v>0.4257425742574257</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3075,7 +2914,6 @@
       <c r="L56" t="n">
         <v>0.9813084112149532</v>
       </c>
-      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3120,9 +2958,6 @@
       <c r="L57" t="n">
         <v>0.8504672897196262</v>
       </c>
-      <c r="M57" t="n">
-        <v>0.3168316831683168</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3167,9 +3002,6 @@
       <c r="L58" t="n">
         <v>0.8598130841121495</v>
       </c>
-      <c r="M58" t="n">
-        <v>0.405940594059406</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3214,9 +3046,6 @@
       <c r="L59" t="n">
         <v>0.7289719626168224</v>
       </c>
-      <c r="M59" t="n">
-        <v>0.6138613861386139</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3261,9 +3090,6 @@
       <c r="L60" t="n">
         <v>0.9252336448598133</v>
       </c>
-      <c r="M60" t="n">
-        <v>0.2623762376237624</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3308,9 +3134,6 @@
       <c r="L61" t="n">
         <v>0.8878504672897196</v>
       </c>
-      <c r="M61" t="n">
-        <v>0.4554455445544555</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3355,9 +3178,6 @@
       <c r="L62" t="n">
         <v>0.8785046728971962</v>
       </c>
-      <c r="M62" t="n">
-        <v>0.2623762376237624</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3402,9 +3222,6 @@
       <c r="L63" t="n">
         <v>0.7476635514018691</v>
       </c>
-      <c r="M63" t="n">
-        <v>0.6732673267326733</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3449,9 +3266,6 @@
       <c r="L64" t="n">
         <v>0.8317757009345794</v>
       </c>
-      <c r="M64" t="n">
-        <v>0.7079207920792079</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3496,9 +3310,6 @@
       <c r="L65" t="n">
         <v>0.8411214953271028</v>
       </c>
-      <c r="M65" t="n">
-        <v>0.4851485148514851</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3543,9 +3354,6 @@
       <c r="L66" t="n">
         <v>0.7850467289719626</v>
       </c>
-      <c r="M66" t="n">
-        <v>0.5148514851485149</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3590,9 +3398,6 @@
       <c r="L67" t="n">
         <v>0.7663551401869159</v>
       </c>
-      <c r="M67" t="n">
-        <v>0.7227722772277225</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3637,9 +3442,6 @@
       <c r="L68" t="n">
         <v>0.8224299065420561</v>
       </c>
-      <c r="M68" t="n">
-        <v>0.7079207920792079</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3684,9 +3486,6 @@
       <c r="L69" t="n">
         <v>0.7383177570093458</v>
       </c>
-      <c r="M69" t="n">
-        <v>0.7425742574257426</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3731,9 +3530,6 @@
       <c r="L70" t="n">
         <v>0.7570093457943925</v>
       </c>
-      <c r="M70" t="n">
-        <v>0.5247524752475248</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3778,9 +3574,6 @@
       <c r="L71" t="n">
         <v>0.8130841121495327</v>
       </c>
-      <c r="M71" t="n">
-        <v>0.5841584158415842</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3825,9 +3618,6 @@
       <c r="L72" t="n">
         <v>0.7102803738317757</v>
       </c>
-      <c r="M72" t="n">
-        <v>0.8217821782178218</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3872,9 +3662,6 @@
       <c r="L73" t="n">
         <v>0.6635514018691588</v>
       </c>
-      <c r="M73" t="n">
-        <v>0.98019801980198</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3919,7 +3706,6 @@
       <c r="L74" t="n">
         <v>0.2803738317757009</v>
       </c>
-      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3964,9 +3750,6 @@
       <c r="L75" t="n">
         <v>0.579439252336449</v>
       </c>
-      <c r="M75" t="n">
-        <v>0.1287128712871287</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4011,9 +3794,6 @@
       <c r="L76" t="n">
         <v>0.1495327102803738</v>
       </c>
-      <c r="M76" t="n">
-        <v>0.5643564356435644</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4058,9 +3838,6 @@
       <c r="L77" t="n">
         <v>0.1775700934579439</v>
       </c>
-      <c r="M77" t="n">
-        <v>0.5445544554455446</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4105,9 +3882,6 @@
       <c r="L78" t="n">
         <v>0.4485981308411215</v>
       </c>
-      <c r="M78" t="n">
-        <v>0.0891089108910891</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4152,9 +3926,6 @@
       <c r="L79" t="n">
         <v>0.308411214953271</v>
       </c>
-      <c r="M79" t="n">
-        <v>0.2178217821782177</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4199,9 +3970,6 @@
       <c r="L80" t="n">
         <v>0.3738317757009346</v>
       </c>
-      <c r="M80" t="n">
-        <v>0.09900990099009901</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4246,9 +4014,6 @@
       <c r="L81" t="n">
         <v>0.1401869158878505</v>
       </c>
-      <c r="M81" t="n">
-        <v>0.4356435643564356</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4293,9 +4058,6 @@
       <c r="L82" t="n">
         <v>0.1588785046728972</v>
       </c>
-      <c r="M82" t="n">
-        <v>0.6633663366336634</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4340,9 +4102,6 @@
       <c r="L83" t="n">
         <v>0.1962616822429906</v>
       </c>
-      <c r="M83" t="n">
-        <v>0.6237623762376238</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4387,9 +4146,6 @@
       <c r="L84" t="n">
         <v>0.2149532710280374</v>
       </c>
-      <c r="M84" t="n">
-        <v>0.9306930693069307</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4434,9 +4190,6 @@
       <c r="L85" t="n">
         <v>0.2242990654205607</v>
       </c>
-      <c r="M85" t="n">
-        <v>0.3960396039603961</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4481,9 +4234,6 @@
       <c r="L86" t="n">
         <v>0.3644859813084112</v>
       </c>
-      <c r="M86" t="n">
-        <v>0.3663366336633663</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4528,9 +4278,6 @@
       <c r="L87" t="n">
         <v>0.205607476635514</v>
       </c>
-      <c r="M87" t="n">
-        <v>0.6386138613861386</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4575,9 +4322,6 @@
       <c r="L88" t="n">
         <v>0.07476635514018691</v>
       </c>
-      <c r="M88" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4622,9 +4366,6 @@
       <c r="L89" t="n">
         <v>0.3457943925233645</v>
       </c>
-      <c r="M89" t="n">
-        <v>0.2277227722772277</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4669,9 +4410,6 @@
       <c r="L90" t="n">
         <v>0.2710280373831775</v>
       </c>
-      <c r="M90" t="n">
-        <v>0.6930693069306919</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4716,9 +4454,6 @@
       <c r="L91" t="n">
         <v>0.102803738317757</v>
       </c>
-      <c r="M91" t="n">
-        <v>0.9900990099009901</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4763,7 +4498,6 @@
       <c r="L92" t="n">
         <v>0.6448598130841121</v>
       </c>
-      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4808,9 +4542,6 @@
       <c r="L93" t="n">
         <v>0.5981308411214954</v>
       </c>
-      <c r="M93" t="n">
-        <v>0.2475247524752475</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4855,9 +4586,6 @@
       <c r="L94" t="n">
         <v>0.5233644859813084</v>
       </c>
-      <c r="M94" t="n">
-        <v>0.5346534653465347</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4902,9 +4630,6 @@
       <c r="L95" t="n">
         <v>0.6355140186915887</v>
       </c>
-      <c r="M95" t="n">
-        <v>0.2079207920792079</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4949,9 +4674,6 @@
       <c r="L96" t="n">
         <v>0.5607476635514024</v>
       </c>
-      <c r="M96" t="n">
-        <v>0.297029702970297</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4996,9 +4718,6 @@
       <c r="L97" t="n">
         <v>0.5046728971962628</v>
       </c>
-      <c r="M97" t="n">
-        <v>0.3861386138613861</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5043,9 +4762,6 @@
       <c r="L98" t="n">
         <v>0.5700934579439252</v>
       </c>
-      <c r="M98" t="n">
-        <v>0.2772277227722772</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5090,9 +4806,6 @@
       <c r="L99" t="n">
         <v>0.4392523364485981</v>
       </c>
-      <c r="M99" t="n">
-        <v>0.7524752475247525</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5137,9 +4850,6 @@
       <c r="L100" t="n">
         <v>0.4299065420560748</v>
       </c>
-      <c r="M100" t="n">
-        <v>0.7623762376237624</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5184,9 +4894,6 @@
       <c r="L101" t="n">
         <v>0.4018691588785047</v>
       </c>
-      <c r="M101" t="n">
-        <v>0.8019801980198019</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5231,9 +4938,6 @@
       <c r="L102" t="n">
         <v>0.4859813084112149</v>
       </c>
-      <c r="M102" t="n">
-        <v>0.594059405940594</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5278,9 +4982,6 @@
       <c r="L103" t="n">
         <v>0.3831775700934579</v>
       </c>
-      <c r="M103" t="n">
-        <v>0.8712871287128707</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5325,9 +5026,6 @@
       <c r="L104" t="n">
         <v>0.5420560747663553</v>
       </c>
-      <c r="M104" t="n">
-        <v>0.3267326732673267</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5372,9 +5070,6 @@
       <c r="L105" t="n">
         <v>0.411214953271028</v>
       </c>
-      <c r="M105" t="n">
-        <v>0.7920792079207921</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5419,9 +5114,6 @@
       <c r="L106" t="n">
         <v>0.4672897196261682</v>
       </c>
-      <c r="M106" t="n">
-        <v>0.6386138613861386</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5466,9 +5158,6 @@
       <c r="L107" t="n">
         <v>0.3177570093457944</v>
       </c>
-      <c r="M107" t="n">
-        <v>0.900990099009901</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5513,9 +5202,6 @@
       <c r="L108" t="n">
         <v>0.3364485981308411</v>
       </c>
-      <c r="M108" t="n">
-        <v>0.8118811881188119</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5559,9 +5245,6 @@
       </c>
       <c r="L109" t="n">
         <v>0.08411214953271028</v>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
